--- a/360-3-2.xlsx
+++ b/360-3-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Antenne\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Antenne\Desktop\C J P\Master-Thesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -745,6 +745,9 @@
       <c r="D1" t="s">
         <v>123</v>
       </c>
+      <c r="F1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -759,6 +762,9 @@
       <c r="D2">
         <v>1700000000</v>
       </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -773,6 +779,9 @@
       <c r="D3">
         <v>1700000000</v>
       </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -788,7 +797,7 @@
         <v>1700003000</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -804,9 +813,6 @@
       <c r="D5">
         <v>1700003000</v>
       </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -821,9 +827,6 @@
       <c r="D6">
         <v>1700003000</v>
       </c>
-      <c r="F6" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -837,9 +840,6 @@
       </c>
       <c r="D7">
         <v>1700003000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
